--- a/template_files/template_parameters_prepro.xlsx
+++ b/template_files/template_parameters_prepro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112736/Documents/MATLAB/NET_v2.24/template_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70EBC70-3827-A849-9C33-1BA12E69F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC25752-C414-8C42-9441-0D7184597D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="28800" windowHeight="20020" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
+    <workbookView xWindow="13060" yWindow="760" windowWidth="17160" windowHeight="18880" activeTab="3" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="conversion" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="192">
   <si>
     <t>parameters_name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>eeg_convert.format</t>
   </si>
   <si>
-    <t>BP</t>
-  </si>
-  <si>
     <t>EGI, ANT, BP, SPM, EEGLAB</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>pos_convert.template</t>
   </si>
   <si>
-    <t>bp128_corr</t>
-  </si>
-  <si>
     <t>template electrode positions</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>leadfield.method</t>
   </si>
   <si>
-    <t>simbio</t>
-  </si>
-  <si>
     <t>string - Method for head model -  dipoli, simbio, fns, gfdm</t>
   </si>
   <si>
@@ -612,6 +603,18 @@
   </si>
   <si>
     <t>[Optional] ECG channels used as references for artifact removal</t>
+  </si>
+  <si>
+    <t>EGI</t>
+  </si>
+  <si>
+    <t>1:255</t>
+  </si>
+  <si>
+    <t>egi256_corr</t>
+  </si>
+  <si>
+    <t>gfdm</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1016,9 +1019,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1026,9 +1026,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,108 +1327,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1746,14 +1676,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D98AC3-834B-A142-8F3A-3E9EF081D5FE}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="14" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="76" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -1774,156 +1704,162 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1935,15 +1871,15 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="38.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1958,135 +1894,135 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="23" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="26" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="C6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="26" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="C7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="26" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="26" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="26" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="B10" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+    <row r="11" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="26">
-        <v>1E-4</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="B11" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B12" s="31">
+        <v>2</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="31" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="B13" s="33">
+        <v>6</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" s="33">
-        <v>2</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="35">
-        <v>6</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2098,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2633E451-54E9-204E-B2DD-CC63587DD169}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2110,659 +2046,611 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+    <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B4" s="40">
+        <v>3</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="43" t="s">
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="B5" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="42">
-        <v>3</v>
-      </c>
-      <c r="C4" s="43" t="s">
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="B6" s="46">
+        <v>1</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="46" t="s">
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="B7" s="46">
+        <v>80</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="48">
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="52">
+        <v>5</v>
+      </c>
+      <c r="C10" s="53"/>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="52">
+        <v>36</v>
+      </c>
+      <c r="C11" s="53"/>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="52">
+        <v>80</v>
+      </c>
+      <c r="C12" s="53"/>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="52">
+        <v>10</v>
+      </c>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="52">
+        <v>30</v>
+      </c>
+      <c r="C14" s="53"/>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="52">
+        <v>0</v>
+      </c>
+      <c r="C15" s="53"/>
+    </row>
+    <row r="16" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="58">
+        <v>258</v>
+      </c>
+      <c r="C17" s="59"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="40">
+        <v>200</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="67">
         <v>1</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="C22" s="68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="67">
+        <v>5</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="67">
+        <v>12</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="73">
+        <v>1</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="73">
+        <v>7</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="73">
+        <v>30</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="67">
+        <v>1</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="73">
+        <v>1</v>
+      </c>
+      <c r="C46" s="74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="73">
+        <v>1</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="71" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="48">
-        <v>80</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="54">
-        <v>5</v>
-      </c>
-      <c r="C10" s="55"/>
-    </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="54">
-        <v>36</v>
-      </c>
-      <c r="C11" s="55"/>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="54">
-        <v>80</v>
-      </c>
-      <c r="C12" s="55"/>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="54">
-        <v>10</v>
-      </c>
-      <c r="C13" s="55"/>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="54">
-        <v>30</v>
-      </c>
-      <c r="C14" s="55"/>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="54">
-        <v>0</v>
-      </c>
-      <c r="C15" s="55"/>
-    </row>
-    <row r="16" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="58"/>
-    </row>
-    <row r="17" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="60">
-        <v>258</v>
-      </c>
-      <c r="C17" s="61"/>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+      <c r="C55" s="62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="78">
+        <v>200</v>
+      </c>
+      <c r="C56" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="42">
-        <v>200</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="69">
-        <v>1</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="69">
-        <v>5</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="69">
-        <v>12</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="75">
-        <v>1</v>
-      </c>
-      <c r="C30" s="76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="75">
-        <v>7</v>
-      </c>
-      <c r="C31" s="76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="75">
-        <v>30</v>
-      </c>
-      <c r="C33" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="C34" s="76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="73" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="C36" s="76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="69">
-        <v>1</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="C43" s="70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="73" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="75">
-        <v>1</v>
-      </c>
-      <c r="C46" s="76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" s="75">
-        <v>1</v>
-      </c>
-      <c r="C48" s="76" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="B49" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="73" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="C50" s="76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="42">
-        <v>0.2</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="80">
-        <v>200</v>
-      </c>
-      <c r="C56" s="81" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B19 B21:B22 B24:B25 B27:B36 B38:B39 B41 B43:B1048576">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"off"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"on"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"off"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"on"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"off"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"on"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"off"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"on"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"off"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"on"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"off"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"on"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"off"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"on"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2774,260 +2662,268 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF21623B-864B-874F-8DEA-99DFC9CCFB34}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="109" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="109" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" style="109" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" style="107" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B3" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="86" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="85" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="B4" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="89" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+      <c r="B5" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="89" t="s">
+      <c r="B6" s="86">
+        <v>4</v>
+      </c>
+      <c r="C6" s="87"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="87" t="s">
+      <c r="B7" s="86">
+        <v>8</v>
+      </c>
+      <c r="C7" s="87"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="B8" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="88">
-        <v>4</v>
-      </c>
-      <c r="C6" s="89"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="C8" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="88">
-        <v>8</v>
-      </c>
-      <c r="C7" s="89"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B9" s="90">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="89" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="92" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="B10" s="93">
+        <v>0</v>
+      </c>
+      <c r="C10" s="94"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B11" s="93">
+        <v>100</v>
+      </c>
+      <c r="C11" s="94"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="97"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="96">
+        <v>5</v>
+      </c>
+      <c r="C13" s="97"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="97"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="97"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="96">
+        <v>0</v>
+      </c>
+      <c r="C16" s="97"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="99">
+        <v>10</v>
+      </c>
+      <c r="C17" s="100"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="99">
+        <v>5</v>
+      </c>
+      <c r="C18" s="100"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="99">
+        <v>1</v>
+      </c>
+      <c r="C19" s="100"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="102">
         <v>0.05</v>
       </c>
-      <c r="C9" s="93" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="95">
-        <v>0</v>
-      </c>
-      <c r="C10" s="96"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="95">
-        <v>100</v>
-      </c>
-      <c r="C11" s="96"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="99"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="98">
-        <v>5</v>
-      </c>
-      <c r="C13" s="99"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="99"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="98">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="99"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="98">
-        <v>0</v>
-      </c>
-      <c r="C16" s="99"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="101">
-        <v>10</v>
-      </c>
-      <c r="C17" s="102"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="100" t="s">
+      <c r="C20" s="103"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="101">
-        <v>5</v>
-      </c>
-      <c r="C18" s="102"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="100" t="s">
+      <c r="B21" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="101">
-        <v>1</v>
-      </c>
-      <c r="C19" s="102"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="103" t="s">
+      <c r="C21" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="104">
-        <v>0.05</v>
-      </c>
-      <c r="C20" s="105"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="108" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="12"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="12"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
+      <c r="B33" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="no">
+      <formula>LEFT(B1,LEN("no"))="no"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="yes">
+      <formula>LEFT(B1,LEN("yes"))="yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template_files/template_parameters_prepro.xlsx
+++ b/template_files/template_parameters_prepro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112736/Documents/MATLAB/NET_v2.24/template_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112736/Documents/MATLAB/net/template_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC25752-C414-8C42-9441-0D7184597D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5135828C-34F2-064D-B96D-69FD1CC3E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="760" windowWidth="17160" windowHeight="18880" activeTab="3" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
+    <workbookView xWindow="13060" yWindow="760" windowWidth="17160" windowHeight="18880" activeTab="2" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="conversion" sheetId="1" r:id="rId1"/>
@@ -2034,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2633E451-54E9-204E-B2DD-CC63587DD169}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2221,7 +2221,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>83</v>
@@ -2662,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF21623B-864B-874F-8DEA-99DFC9CCFB34}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/template_files/template_parameters_prepro.xlsx
+++ b/template_files/template_parameters_prepro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112736/Documents/MATLAB/net/template_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5135828C-34F2-064D-B96D-69FD1CC3E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DE0D02-21DB-3040-9736-B2E1F78FCC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="760" windowWidth="17160" windowHeight="18880" activeTab="2" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
+    <workbookView xWindow="13060" yWindow="760" windowWidth="17160" windowHeight="18880" activeTab="1" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="conversion" sheetId="1" r:id="rId1"/>
@@ -188,9 +188,6 @@
     <t>leadfield.method</t>
   </si>
   <si>
-    <t>string - Method for head model -  dipoli, simbio, fns, gfdm</t>
-  </si>
-  <si>
     <t>leadfield.input_voxel_size</t>
   </si>
   <si>
@@ -615,6 +612,9 @@
   </si>
   <si>
     <t>gfdm</t>
+  </si>
+  <si>
+    <t>string - Method for head model -  gfdm, simbio, dipoli</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +784,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1091,9 +1097,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1330,6 +1333,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1704,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -1745,8 +1751,8 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="108" t="s">
-        <v>189</v>
+      <c r="B6" s="107" t="s">
+        <v>188</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -1772,11 +1778,11 @@
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1870,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C2074C-4685-FA4E-8B41-772C8A03D7F7}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1915,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>27</v>
@@ -1997,32 +2003,32 @@
         <v>48</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="29" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="B12" s="30">
+        <v>2</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="31">
-        <v>2</v>
-      </c>
-      <c r="C12" s="32" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="B13" s="32">
+        <v>6</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" s="33">
-        <v>6</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2633E451-54E9-204E-B2DD-CC63587DD169}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2046,603 +2052,603 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="38" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="B3" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="41" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="B4" s="39">
+        <v>3</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="40">
-        <v>3</v>
-      </c>
-      <c r="C4" s="41" t="s">
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="B5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="44" t="s">
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="B6" s="45">
+        <v>1</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="46">
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="45">
+        <v>80</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="51">
+        <v>5</v>
+      </c>
+      <c r="C10" s="52"/>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="51">
+        <v>36</v>
+      </c>
+      <c r="C11" s="52"/>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="51">
+        <v>80</v>
+      </c>
+      <c r="C12" s="52"/>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="51">
+        <v>10</v>
+      </c>
+      <c r="C13" s="52"/>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="51">
+        <v>30</v>
+      </c>
+      <c r="C14" s="52"/>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="51">
+        <v>0</v>
+      </c>
+      <c r="C15" s="52"/>
+    </row>
+    <row r="16" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="55"/>
+    </row>
+    <row r="17" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="57">
+        <v>258</v>
+      </c>
+      <c r="C17" s="58"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="39">
+        <v>200</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="66">
         <v>1</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="46">
-        <v>80</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="C22" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="66">
+        <v>5</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="66">
+        <v>12</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="72">
+        <v>1</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="72">
+        <v>7</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="72">
+        <v>30</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="72">
+        <v>0.8</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="72">
+        <v>0.2</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="66">
+        <v>1</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="72">
+        <v>1</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="72">
+        <v>1</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="72">
+        <v>0.2</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="52">
-        <v>5</v>
-      </c>
-      <c r="C10" s="53"/>
-    </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="52">
-        <v>36</v>
-      </c>
-      <c r="C11" s="53"/>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="52">
-        <v>80</v>
-      </c>
-      <c r="C12" s="53"/>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="52">
-        <v>10</v>
-      </c>
-      <c r="C13" s="53"/>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="52">
-        <v>30</v>
-      </c>
-      <c r="C14" s="53"/>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="52">
-        <v>0</v>
-      </c>
-      <c r="C15" s="53"/>
-    </row>
-    <row r="16" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="56"/>
-    </row>
-    <row r="17" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="58">
-        <v>258</v>
-      </c>
-      <c r="C17" s="59"/>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="C55" s="61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="77">
+        <v>200</v>
+      </c>
+      <c r="C56" s="78" t="s">
         <v>84</v>
-      </c>
-      <c r="B19" s="40">
-        <v>200</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="67">
-        <v>1</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="67">
-        <v>5</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="67">
-        <v>12</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="73">
-        <v>1</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="73">
-        <v>7</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="73">
-        <v>30</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="73">
-        <v>0.8</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="73">
-        <v>0.2</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="67">
-        <v>1</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="C41" s="68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="71" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="B46" s="73">
-        <v>1</v>
-      </c>
-      <c r="C46" s="74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="71" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="73">
-        <v>1</v>
-      </c>
-      <c r="C48" s="74" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="71" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="B50" s="73">
-        <v>0.2</v>
-      </c>
-      <c r="C50" s="74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="78">
-        <v>200</v>
-      </c>
-      <c r="C56" s="79" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2668,215 +2674,215 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="107" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" style="107" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" style="106" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="C2" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="84" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="B3" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="86" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+      <c r="B6" s="85">
+        <v>4</v>
+      </c>
+      <c r="C6" s="86"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="86">
-        <v>4</v>
-      </c>
-      <c r="C6" s="87"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="B7" s="85">
+        <v>8</v>
+      </c>
+      <c r="C7" s="86"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="86">
-        <v>8</v>
-      </c>
-      <c r="C7" s="87"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
+      <c r="B8" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="C8" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="87" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="88" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
+      <c r="B9" s="89">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="90">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="92">
+        <v>0</v>
+      </c>
+      <c r="C10" s="93"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="92">
+        <v>100</v>
+      </c>
+      <c r="C11" s="93"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="96"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="95">
+        <v>5</v>
+      </c>
+      <c r="C13" s="96"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="96"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="96"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="95">
+        <v>0</v>
+      </c>
+      <c r="C16" s="96"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="98">
+        <v>10</v>
+      </c>
+      <c r="C17" s="99"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="98">
+        <v>5</v>
+      </c>
+      <c r="C18" s="99"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="98">
+        <v>1</v>
+      </c>
+      <c r="C19" s="99"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="101">
         <v>0.05</v>
       </c>
-      <c r="C9" s="91" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="93">
-        <v>0</v>
-      </c>
-      <c r="C10" s="94"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="93">
-        <v>100</v>
-      </c>
-      <c r="C11" s="94"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="97"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="96">
-        <v>5</v>
-      </c>
-      <c r="C13" s="97"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="97"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="96">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="97"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="96">
-        <v>0</v>
-      </c>
-      <c r="C16" s="97"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="99">
-        <v>10</v>
-      </c>
-      <c r="C17" s="100"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="99">
-        <v>5</v>
-      </c>
-      <c r="C18" s="100"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="99">
-        <v>1</v>
-      </c>
-      <c r="C19" s="100"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="s">
+      <c r="C20" s="102"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="102">
-        <v>0.05</v>
-      </c>
-      <c r="C20" s="103"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="104" t="s">
+      <c r="B21" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="C21" s="105" t="s">
         <v>173</v>
-      </c>
-      <c r="C21" s="106" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">

--- a/template_files/template_parameters_prepro.xlsx
+++ b/template_files/template_parameters_prepro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112736/Documents/MATLAB/NET_v2.24/template_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112736/Documents/MATLAB/net/template_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC25752-C414-8C42-9441-0D7184597D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28AE297-0641-8843-B0AA-BA5AFD9081AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="760" windowWidth="17160" windowHeight="18880" activeTab="3" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
+    <workbookView xWindow="1680" yWindow="760" windowWidth="28540" windowHeight="18880" activeTab="3" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="conversion" sheetId="1" r:id="rId1"/>
@@ -611,10 +611,10 @@
     <t>1:255</t>
   </si>
   <si>
-    <t>egi256_corr</t>
-  </si>
-  <si>
     <t>gfdm</t>
+  </si>
+  <si>
+    <t>egi256</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1871,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1909,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>27</v>
@@ -1997,7 +1997,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>49</v>
@@ -2034,7 +2034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2633E451-54E9-204E-B2DD-CC63587DD169}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>

--- a/template_files/template_parameters_prepro.xlsx
+++ b/template_files/template_parameters_prepro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112736/Documents/MATLAB/net/template_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28AE297-0641-8843-B0AA-BA5AFD9081AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B4794B-3AE5-D845-A1F1-16455BFC11D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="760" windowWidth="28540" windowHeight="18880" activeTab="3" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
+    <workbookView xWindow="13060" yWindow="760" windowWidth="17160" windowHeight="18880" xr2:uid="{668F9A64-0E82-7D43-BE0B-34BDD1B9FB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="conversion" sheetId="1" r:id="rId1"/>
@@ -608,13 +608,13 @@
     <t>EGI</t>
   </si>
   <si>
-    <t>1:255</t>
+    <t>egi256_corr</t>
   </si>
   <si>
     <t>gfdm</t>
   </si>
   <si>
-    <t>egi256</t>
+    <t>1:256</t>
   </si>
 </sst>
 </file>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D98AC3-834B-A142-8F3A-3E9EF081D5FE}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1746,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -1871,7 +1871,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1909,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>27</v>
@@ -2034,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2633E451-54E9-204E-B2DD-CC63587DD169}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2221,7 +2221,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>83</v>
@@ -2662,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF21623B-864B-874F-8DEA-99DFC9CCFB34}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
